--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3306789.441816857</v>
+        <v>3320652.472525414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702196</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>165.6820030180016</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.1970224230688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>168.0536933383393</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>160.3498115560257</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464215</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464215</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>31.84117302694025</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409305</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>129.4418972085973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>52.6704219520128</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>109.1950963534706</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>122.2436765653583</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>114.807045819953</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7789855469582</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>71.16968012254746</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>45.22146064986453</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>47.25315630530974</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>48.89754989184057</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>181.5636496204279</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273936</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.347695664762796</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>221.4463743615492</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,13 +1847,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.9898110906269</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>226.1460432083416</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249799</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>222.2435721011143</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>48.85174888144395</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>136.8308676221383</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>96.84207451769305</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.18937547121065</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>3.633341602776479</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>25.04588368241686</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3907,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274078</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>174.3062600431766</v>
+        <v>200.5749791798098</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.35312136793682</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="C2" t="n">
-        <v>44.35312136793682</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="D2" t="n">
-        <v>44.35312136793682</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="E2" t="n">
-        <v>44.35312136793682</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873335</v>
+        <v>189.4480797002304</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438682</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173955</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228791</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>529.5587134138199</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U2" t="n">
-        <v>529.5587134138199</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="V2" t="n">
-        <v>529.5587134138199</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="W2" t="n">
-        <v>529.5587134138199</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="X2" t="n">
-        <v>250.6127399770972</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.35312136793682</v>
+        <v>196.3935804494339</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>630.6692537831356</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="C3" t="n">
-        <v>456.2162245020086</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="D3" t="n">
         <v>307.2818148407573</v>
@@ -4395,64 +4395,64 @@
         <v>307.2818148407573</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676422</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
         <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>282.0379868638977</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8501726635176</v>
+        <v>555.4329354292296</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940351</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940351</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940351</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="V3" t="n">
-        <v>1008.180757940351</v>
+        <v>469.2513214630055</v>
       </c>
       <c r="W3" t="n">
-        <v>838.4295525480895</v>
+        <v>469.2513214630055</v>
       </c>
       <c r="X3" t="n">
-        <v>838.4295525480895</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="Y3" t="n">
-        <v>630.6692537831356</v>
+        <v>307.2818148407573</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.3583842988683</v>
+        <v>459.6490121775961</v>
       </c>
       <c r="C5" t="n">
-        <v>781.3583842988683</v>
+        <v>459.6490121775961</v>
       </c>
       <c r="D5" t="n">
-        <v>781.3583842988683</v>
+        <v>459.6490121775961</v>
       </c>
       <c r="E5" t="n">
-        <v>781.3583842988683</v>
+        <v>83.85140526201883</v>
       </c>
       <c r="F5" t="n">
-        <v>405.560777383291</v>
+        <v>76.90590451281535</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771372</v>
+        <v>61.9259715050271</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771372</v>
+        <v>61.9259715050271</v>
       </c>
       <c r="I5" t="n">
         <v>29.76317046771372</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380389</v>
+        <v>57.6439173538038</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456875</v>
+        <v>220.1747338456873</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039969</v>
+        <v>474.0852112039968</v>
       </c>
       <c r="M5" t="n">
         <v>773.2160860494148</v>
@@ -4589,28 +4589,28 @@
         <v>1488.158523385686</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385686</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="S5" t="n">
-        <v>1287.905382334241</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="T5" t="n">
-        <v>1287.905382334241</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="U5" t="n">
-        <v>1287.905382334241</v>
+        <v>1166.509506436744</v>
       </c>
       <c r="V5" t="n">
-        <v>1287.905382334241</v>
+        <v>835.4466190931734</v>
       </c>
       <c r="W5" t="n">
-        <v>1287.905382334241</v>
+        <v>835.4466190931734</v>
       </c>
       <c r="X5" t="n">
-        <v>1287.905382334241</v>
+        <v>835.4466190931734</v>
       </c>
       <c r="Y5" t="n">
-        <v>1157.155991214446</v>
+        <v>835.4466190931734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.3996311956955</v>
+        <v>406.7377172564425</v>
       </c>
       <c r="C6" t="n">
-        <v>302.9466019145685</v>
+        <v>406.7377172564425</v>
       </c>
       <c r="D6" t="n">
-        <v>302.9466019145685</v>
+        <v>257.8033075951912</v>
       </c>
       <c r="E6" t="n">
-        <v>249.744155498394</v>
+        <v>257.8033075951912</v>
       </c>
       <c r="F6" t="n">
-        <v>249.744155498394</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="G6" t="n">
         <v>111.2687496220762</v>
@@ -4644,25 +4644,25 @@
         <v>29.76317046771372</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782833</v>
+        <v>52.67537262782834</v>
       </c>
       <c r="K6" t="n">
-        <v>57.53734611231289</v>
+        <v>52.67537262782834</v>
       </c>
       <c r="L6" t="n">
-        <v>341.8553552584488</v>
+        <v>336.9933817739643</v>
       </c>
       <c r="M6" t="n">
-        <v>710.1745897964061</v>
+        <v>581.0776013314401</v>
       </c>
       <c r="N6" t="n">
-        <v>1078.493824334363</v>
+        <v>949.3968358693974</v>
       </c>
       <c r="O6" t="n">
-        <v>1386.808705706682</v>
+        <v>1257.711717241716</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706682</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="Q6" t="n">
         <v>1488.158523385686</v>
@@ -4686,10 +4686,10 @@
         <v>685.2511314012283</v>
       </c>
       <c r="X6" t="n">
-        <v>477.3996311956955</v>
+        <v>574.9530542765106</v>
       </c>
       <c r="Y6" t="n">
-        <v>477.3996311956955</v>
+        <v>574.9530542765106</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918665</v>
+        <v>191.7251450147369</v>
       </c>
       <c r="D7" t="n">
-        <v>315.2036061918665</v>
+        <v>191.7251450147369</v>
       </c>
       <c r="E7" t="n">
-        <v>199.236893242419</v>
+        <v>191.7251450147369</v>
       </c>
       <c r="F7" t="n">
-        <v>199.236893242419</v>
+        <v>191.7251450147369</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771372</v>
+        <v>191.7251450147369</v>
       </c>
       <c r="H7" t="n">
         <v>29.76317046771372</v>
@@ -4726,7 +4726,7 @@
         <v>29.76317046771372</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888139</v>
+        <v>32.0999017588814</v>
       </c>
       <c r="L7" t="n">
         <v>90.61654790611234</v>
@@ -4738,37 +4738,37 @@
         <v>238.5105468400014</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057937</v>
+        <v>292.5145415057938</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918665</v>
+        <v>315.2036061918666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1435.441956461044</v>
+        <v>1683.321707331112</v>
       </c>
       <c r="C8" t="n">
-        <v>1435.441956461044</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>928.5709377924563</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>517.5850330028488</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>99.6212249010357</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.181128500977</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y8" t="n">
-        <v>1822.041796525165</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>501.1739419570274</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>501.1739419570274</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>246.4894537511405</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W10" t="n">
-        <v>246.4894537511405</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X10" t="n">
-        <v>246.4894537511405</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511405</v>
+        <v>409.5384547146243</v>
       </c>
     </row>
     <row r="11">
@@ -5018,52 +5018,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>826.4699958077928</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155876</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805456</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822448</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1495.534759785415</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>462.7283310300503</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5713,10 +5713,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,22 +5774,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>3778.208216256919</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.272033329012</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1323.168986627976</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>1099.383571417482</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U22" t="n">
-        <v>810.2549326310402</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V22" t="n">
-        <v>555.5704444251534</v>
+        <v>4408.638811128706</v>
       </c>
       <c r="W22" t="n">
-        <v>266.1532743881928</v>
+        <v>4408.638811128706</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>4180.649260230689</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>3959.856681087159</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1375.025382843599</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466635</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6248,7 +6248,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365143</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>844.1942894808745</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1025.842754311114</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>1025.842754311114</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>1025.842754311114</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6880,25 +6880,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864553</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7099,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>898.7925182488382</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>644.1080300429513</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>354.6908600059907</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>126.7013091079734</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7169,37 +7169,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M39" t="n">
-        <v>1564.731711769082</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1894.594339433114</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>2174.134404651812</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.8871334832924</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>731.3177283550796</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7400,22 +7400,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7427,10 +7427,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7494,13 +7494,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>624.8682044203586</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M42" t="n">
-        <v>932.1883377003201</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
         <v>2016.139981183168</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>739.1390269937325</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C43" t="n">
-        <v>713.8401545872508</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>563.7235151749151</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028587</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W43" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X43" t="n">
-        <v>959.9316061372626</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y43" t="n">
-        <v>739.1390269937325</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,25 +7649,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O45" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632138</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>822.148054050878</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684849</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1322.84934122136</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.84934122136</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W46" t="n">
-        <v>1322.84934122136</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.84934122136</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562865</v>
+        <v>239.6115747153265</v>
       </c>
       <c r="M3" t="n">
-        <v>327.1395372443068</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.6736186875539</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>101.9203152713381</v>
+        <v>97.00923094357593</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.103353283573</v>
+        <v>324.6134391618746</v>
       </c>
       <c r="N6" t="n">
         <v>437.6152809470456</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>85.68821697936181</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247343</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498454</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>15.83804904622852</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,25 +10194,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>158.8724419039333</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11142,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>91.23759968302141</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>104.9593487161631</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.463718035665806e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>194.5731143188405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>65.07662397504183</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>23.93099889297633</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>25.99160011548639</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>75.26883114644322</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>29.89407122271373</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,7 +24652,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>176.8579065075932</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>149.6921307144527</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>124.7054865406962</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>189.3952778808841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>163.6134794958514</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25597,7 +25597,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.200937416211</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>71.18267187568719</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,19 +26077,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>111.9310923554008</v>
+        <v>85.66237321876753</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>707523.0293466949</v>
+        <v>707523.0293466951</v>
       </c>
     </row>
     <row r="9">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778539</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278754</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="G2" t="n">
         <v>703852.3075278756</v>
       </c>
       <c r="H2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="I2" t="n">
-        <v>703852.3075278758</v>
-      </c>
       <c r="J2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278755</v>
       </c>
       <c r="L2" t="n">
         <v>703852.3075278756</v>
@@ -26347,10 +26347,10 @@
         <v>703852.3075278758</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="P2" t="n">
         <v>703852.3075278758</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
         <v>106137.151770383</v>
@@ -26393,7 +26393,7 @@
         <v>24677.24609313398</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817159</v>
+        <v>76496.1579381715</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318756.6528900198</v>
+        <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>288740.7721312278</v>
+        <v>286886.6599484434</v>
       </c>
       <c r="D4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>45115.60258318327</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>45115.60258318322</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
-        <v>45115.60258318328</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="H4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
-        <v>45115.60258318334</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>45115.60258318331</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
-        <v>45115.60258318327</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="M4" t="n">
-        <v>45115.6025831833</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="N4" t="n">
-        <v>45115.60258318326</v>
+        <v>43561.42148316551</v>
       </c>
       <c r="O4" t="n">
-        <v>45115.60258318328</v>
+        <v>43561.42148316552</v>
       </c>
       <c r="P4" t="n">
-        <v>45115.60258318327</v>
+        <v>43561.42148316556</v>
       </c>
     </row>
     <row r="5">
@@ -26479,19 +26479,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242706.2190242421</v>
+        <v>244535.903477349</v>
       </c>
       <c r="C6" t="n">
-        <v>285249.2469613861</v>
+        <v>287103.359144171</v>
       </c>
       <c r="D6" t="n">
-        <v>145228.8614812635</v>
+        <v>147159.9759968039</v>
       </c>
       <c r="E6" t="n">
-        <v>41589.34251907971</v>
+        <v>43143.52361909777</v>
       </c>
       <c r="F6" t="n">
-        <v>566749.3789959756</v>
+        <v>568303.5600959937</v>
       </c>
       <c r="G6" t="n">
-        <v>566749.3789959757</v>
+        <v>568303.5600959935</v>
       </c>
       <c r="H6" t="n">
-        <v>566749.3789959761</v>
+        <v>568303.5600959935</v>
       </c>
       <c r="I6" t="n">
-        <v>566749.3789959758</v>
+        <v>568303.5600959937</v>
       </c>
       <c r="J6" t="n">
-        <v>494494.6841248369</v>
+        <v>496048.8652248541</v>
       </c>
       <c r="K6" t="n">
-        <v>542072.1329028417</v>
+        <v>543626.3140028599</v>
       </c>
       <c r="L6" t="n">
-        <v>490253.2210578042</v>
+        <v>491807.4021578219</v>
       </c>
       <c r="M6" t="n">
-        <v>431948.3637621386</v>
+        <v>433502.5448621564</v>
       </c>
       <c r="N6" t="n">
-        <v>566749.3789959758</v>
+        <v>568303.5600959937</v>
       </c>
       <c r="O6" t="n">
-        <v>566749.3789959757</v>
+        <v>568303.5600959938</v>
       </c>
       <c r="P6" t="n">
-        <v>566749.3789959758</v>
+        <v>568303.5600959936</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593884</v>
+        <v>117.5602045593885</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
         <v>372.0396308464215</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026313</v>
+        <v>82.53894384026312</v>
       </c>
       <c r="D3" t="n">
         <v>260.1834596576982</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406601</v>
+        <v>95.88311714406599</v>
       </c>
       <c r="D4" t="n">
         <v>302.2476419081341</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023558</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406601</v>
+        <v>95.88311714406599</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081339</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406601</v>
+        <v>95.88311714406599</v>
       </c>
       <c r="L4" t="n">
         <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>249.4799455093179</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>182.0409162329848</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>83.64128982258032</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>45.42317364745182</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27591,7 +27591,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.890739225840321</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528998</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.7905028312889</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>160.4146571011508</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>256.7960414474562</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,22 +27692,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>104.9746585033881</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
         <v>109.7932973455552</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>96.57788885000687</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>45.00314453326949</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>31.62691682661615</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>149.0752428504967</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322674</v>
+        <v>68.41045236322672</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>283.5133614981355</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>278.7013121144926</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>132.5788238766276</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>176.1375555662437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29086,13 +29086,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29752,16 +29752,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29800,19 +29800,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29986,25 +29986,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,22 +30034,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,40 +31276,40 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246767</v>
+        <v>0.4726038374246768</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025472</v>
+        <v>4.840054050025473</v>
       </c>
       <c r="I5" t="n">
         <v>18.22005944231487</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662269</v>
+        <v>40.1116599466227</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480927</v>
+        <v>60.11698038480928</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439474</v>
+        <v>74.58043007439476</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819582</v>
+        <v>82.98509856819585</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127869</v>
+        <v>84.32788422127872</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288706</v>
+        <v>79.62842981288708</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646534</v>
+        <v>67.96102257646537</v>
       </c>
       <c r="Q5" t="n">
         <v>51.0358976486941</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262787</v>
+        <v>29.68720080262788</v>
       </c>
       <c r="S5" t="n">
         <v>10.76945994531483</v>
@@ -31318,7 +31318,7 @@
         <v>2.068823298326524</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397413</v>
+        <v>0.03780830699397414</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.252865345656043</v>
+        <v>0.2528653456560431</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941258</v>
+        <v>2.442146890941259</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596219</v>
+        <v>8.706109488596221</v>
       </c>
       <c r="J6" t="n">
         <v>23.89022987182818</v>
@@ -31370,22 +31370,22 @@
         <v>40.83220803078306</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483514</v>
+        <v>54.90394270483515</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486668</v>
+        <v>64.07031148486669</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270919</v>
+        <v>65.7660619827092</v>
       </c>
       <c r="O6" t="n">
-        <v>60.1630982710674</v>
+        <v>60.16309827106741</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496843</v>
+        <v>48.28619043496845</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128718</v>
+        <v>32.27803956128719</v>
       </c>
       <c r="R6" t="n">
         <v>15.69983260134626</v>
@@ -31437,43 +31437,43 @@
         <v>0.2119938115005365</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886589</v>
+        <v>1.88481770588659</v>
       </c>
       <c r="I7" t="n">
-        <v>6.37523207676159</v>
+        <v>6.375232076761591</v>
       </c>
       <c r="J7" t="n">
         <v>14.98796247308793</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342596</v>
+        <v>24.62982646342597</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072522</v>
+        <v>31.51769812072523</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094318</v>
+        <v>33.23099356094319</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898666</v>
+        <v>32.44083480898667</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736675</v>
+        <v>29.96436164736676</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275578</v>
+        <v>25.63968789275579</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846765</v>
+        <v>17.75159088846766</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651392</v>
+        <v>9.532012651651394</v>
       </c>
       <c r="S7" t="n">
         <v>3.694473969513894</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477465</v>
+        <v>0.9057917400477468</v>
       </c>
       <c r="U7" t="n">
         <v>0.01156329880912019</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>117.41311485904</v>
       </c>
       <c r="M3" t="n">
-        <v>204.0920904142118</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>164.1725419109935</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548579</v>
+        <v>256.475229654858</v>
       </c>
       <c r="M5" t="n">
         <v>302.1523988337556</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366719</v>
+        <v>292.261745036672</v>
       </c>
       <c r="O5" t="n">
         <v>230.3303996539457</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926784</v>
+        <v>158.5267349926785</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414929</v>
+        <v>41.0451984341493</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>23.14363854557032</v>
       </c>
       <c r="K6" t="n">
-        <v>4.91108432776218</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284201</v>
+        <v>287.1899082284202</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464215</v>
+        <v>246.549716724723</v>
       </c>
       <c r="N6" t="n">
         <v>372.0396308464215</v>
@@ -35030,10 +35030,10 @@
         <v>311.4291731033525</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>232.7745516605754</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111148</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543108</v>
+        <v>2.360334637543115</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104136</v>
+        <v>59.10772338104137</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278376</v>
+        <v>72.81487052278378</v>
       </c>
       <c r="N7" t="n">
         <v>76.57300718821526</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140642</v>
+        <v>54.54948956140643</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764927</v>
+        <v>22.91824715764928</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003116</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>536.1008625915819</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>327.2930933377847</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>222.9314639777532</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058698</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>365.9658568354579</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>340.4953046390457</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3320652.472525414</v>
+        <v>3402336.515063711</v>
       </c>
     </row>
     <row r="7">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>165.6820030180016</v>
+        <v>45.58123541261001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>95.88072654069454</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>160.3498115560257</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.71014592494667</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>86.23693751337946</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0396308464215</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>372.0396308464215</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>372.0396308464219</v>
       </c>
       <c r="G5" t="n">
-        <v>14.83013367771037</v>
+        <v>353.5130703032158</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>31.84117302694025</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409305</v>
@@ -981,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281885</v>
+        <v>80.69052336281882</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129687</v>
+        <v>84.45800155129682</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>59.3477081039727</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>109.1950963534706</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>122.2436765653583</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.5107885164152</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>139.9133151432366</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>45.22146064986453</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.25315630530974</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>33.89392690056376</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274174</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.11561436815845</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>181.5636496204279</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.66770972161017</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>221.4463743615492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498035</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>49.15010423076807</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>27.95833909584181</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>226.1460432083416</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>222.2435721011143</v>
+        <v>17.2985572568743</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>48.85174888144395</v>
+        <v>27.37255160319397</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>97.75459595110136</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>136.8308676221383</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>87.44132015039787</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.078595249799</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>38.31841662859272</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>215.0546805228902</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>200.5749791798098</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>6.908886110803429</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.3935804494339</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="C2" t="n">
-        <v>196.3935804494339</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="D2" t="n">
-        <v>196.3935804494339</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="E2" t="n">
-        <v>196.3935804494339</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="F2" t="n">
-        <v>189.4480797002304</v>
+        <v>68.13417302811774</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4340,10 +4342,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228794</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>754.2855273228794</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="U2" t="n">
-        <v>754.2855273228794</v>
+        <v>626.0261199015631</v>
       </c>
       <c r="V2" t="n">
-        <v>475.3395538861566</v>
+        <v>626.0261199015631</v>
       </c>
       <c r="W2" t="n">
-        <v>196.3935804494339</v>
+        <v>626.0261199015631</v>
       </c>
       <c r="X2" t="n">
-        <v>196.3935804494339</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="Y2" t="n">
-        <v>196.3935804494339</v>
+        <v>347.0801464648404</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.2818148407573</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="C3" t="n">
-        <v>307.2818148407573</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="D3" t="n">
-        <v>307.2818148407573</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="E3" t="n">
-        <v>307.2818148407573</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676423</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L3" t="n">
-        <v>282.0379868638977</v>
+        <v>212.4252932779024</v>
       </c>
       <c r="M3" t="n">
-        <v>555.4329354292296</v>
+        <v>485.8202418432342</v>
       </c>
       <c r="N3" t="n">
-        <v>828.8278839945615</v>
+        <v>759.2151904085661</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4431,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606005</v>
+        <v>911.3315392123772</v>
       </c>
       <c r="T3" t="n">
-        <v>932.6220420606005</v>
+        <v>709.4516392404864</v>
       </c>
       <c r="U3" t="n">
-        <v>704.4034296947482</v>
+        <v>481.2330268746341</v>
       </c>
       <c r="V3" t="n">
-        <v>469.2513214630055</v>
+        <v>481.2330268746341</v>
       </c>
       <c r="W3" t="n">
-        <v>469.2513214630055</v>
+        <v>481.2330268746341</v>
       </c>
       <c r="X3" t="n">
-        <v>307.2818148407573</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="Y3" t="n">
-        <v>307.2818148407573</v>
+        <v>273.3815266691013</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>168.9824685940988</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>459.6490121775961</v>
+        <v>956.8424949906722</v>
       </c>
       <c r="C5" t="n">
-        <v>459.6490121775961</v>
+        <v>956.8424949906722</v>
       </c>
       <c r="D5" t="n">
-        <v>459.6490121775961</v>
+        <v>956.8424949906722</v>
       </c>
       <c r="E5" t="n">
-        <v>83.85140526201883</v>
+        <v>956.8424949906722</v>
       </c>
       <c r="F5" t="n">
-        <v>76.90590451281535</v>
+        <v>581.0448880750945</v>
       </c>
       <c r="G5" t="n">
-        <v>61.9259715050271</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="H5" t="n">
-        <v>61.9259715050271</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="J5" t="n">
-        <v>57.6439173538038</v>
+        <v>57.64391735380394</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456873</v>
+        <v>220.1747338456877</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039968</v>
+        <v>474.0852112039973</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494148</v>
+        <v>773.2160860494157</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.55521363572</v>
+        <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293126</v>
+        <v>1290.582309293128</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935878</v>
+        <v>1447.52377693588</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488189</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="S5" t="n">
-        <v>1166.509506436744</v>
+        <v>1287.905382334243</v>
       </c>
       <c r="T5" t="n">
-        <v>1166.509506436744</v>
+        <v>1287.905382334243</v>
       </c>
       <c r="U5" t="n">
-        <v>1166.509506436744</v>
+        <v>1287.905382334243</v>
       </c>
       <c r="V5" t="n">
-        <v>835.4466190931734</v>
+        <v>956.8424949906722</v>
       </c>
       <c r="W5" t="n">
-        <v>835.4466190931734</v>
+        <v>956.8424949906722</v>
       </c>
       <c r="X5" t="n">
-        <v>835.4466190931734</v>
+        <v>956.8424949906722</v>
       </c>
       <c r="Y5" t="n">
-        <v>835.4466190931734</v>
+        <v>956.8424949906722</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406.7377172564425</v>
+        <v>557.9160201651007</v>
       </c>
       <c r="C6" t="n">
-        <v>406.7377172564425</v>
+        <v>557.9160201651007</v>
       </c>
       <c r="D6" t="n">
-        <v>257.8033075951912</v>
+        <v>408.9816105038495</v>
       </c>
       <c r="E6" t="n">
-        <v>257.8033075951912</v>
+        <v>249.744155498394</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>249.744155498394</v>
       </c>
       <c r="G6" t="n">
         <v>111.2687496220762</v>
@@ -4641,55 +4643,55 @@
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782834</v>
+        <v>52.67537262782845</v>
       </c>
       <c r="K6" t="n">
-        <v>52.67537262782834</v>
+        <v>218.4568186361412</v>
       </c>
       <c r="L6" t="n">
-        <v>336.9933817739643</v>
+        <v>502.7748277822774</v>
       </c>
       <c r="M6" t="n">
-        <v>581.0776013314401</v>
+        <v>871.094062320235</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358693974</v>
+        <v>1179.843642013368</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241716</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707608</v>
+        <v>1402.84741070761</v>
       </c>
       <c r="S6" t="n">
-        <v>1402.847410707608</v>
+        <v>1402.84741070761</v>
       </c>
       <c r="T6" t="n">
-        <v>1402.847410707608</v>
+        <v>1201.690336058658</v>
       </c>
       <c r="U6" t="n">
-        <v>1174.640596361173</v>
+        <v>1201.690336058658</v>
       </c>
       <c r="V6" t="n">
-        <v>939.4884881294299</v>
+        <v>1141.743156155655</v>
       </c>
       <c r="W6" t="n">
-        <v>685.2511314012283</v>
+        <v>1141.743156155655</v>
       </c>
       <c r="X6" t="n">
-        <v>574.9530542765106</v>
+        <v>933.8916559501226</v>
       </c>
       <c r="Y6" t="n">
-        <v>574.9530542765106</v>
+        <v>726.1313571851688</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918666</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="C7" t="n">
-        <v>191.7251450147369</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="D7" t="n">
-        <v>191.7251450147369</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="E7" t="n">
-        <v>191.7251450147369</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="F7" t="n">
-        <v>191.7251450147369</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="G7" t="n">
-        <v>191.7251450147369</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771372</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771375</v>
       </c>
       <c r="K7" t="n">
-        <v>32.0999017588814</v>
+        <v>32.09990175888151</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611234</v>
+        <v>90.61654790611257</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236683</v>
+        <v>162.7032697236686</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400014</v>
+        <v>238.5105468400018</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057938</v>
+        <v>292.5145415057943</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918672</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918666</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918666</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918666</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918666</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918666</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918666</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918666</v>
+        <v>180.3442238520538</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918666</v>
+        <v>180.3442238520538</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1683.321707331112</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="C8" t="n">
-        <v>1314.359190390701</v>
+        <v>1504.879971633457</v>
       </c>
       <c r="D8" t="n">
-        <v>1314.359190390701</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>928.5709377924563</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>517.5850330028488</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>99.6212249010357</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y8" t="n">
-        <v>2069.921547395234</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4905,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.80799380017</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146243</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146243</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146243</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146243</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.5384547146243</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822472</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>377.6878657662453</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W13" t="n">
-        <v>826.4699958077928</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="X13" t="n">
-        <v>598.4804449097754</v>
+        <v>357.5203921878144</v>
       </c>
       <c r="Y13" t="n">
-        <v>377.6878657662453</v>
+        <v>136.7278130442843</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5300,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.3990000507114</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507114</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1451.777169829004</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1451.777169829004</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1451.777169829004</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1451.777169829004</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>1451.777169829004</v>
       </c>
       <c r="W16" t="n">
-        <v>562.3990000507114</v>
+        <v>1162.359999792043</v>
       </c>
       <c r="X16" t="n">
-        <v>562.3990000507114</v>
+        <v>934.3704488940257</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.3990000507114</v>
+        <v>713.5778697504956</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5504,31 +5506,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5537,28 +5539,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>444.8933943850835</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>444.8933943850835</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>294.7767549727478</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>146.8636613903547</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>444.8933943850835</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365139</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2279.445761859784</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3778.208216256919</v>
+        <v>874.6385818722736</v>
       </c>
       <c r="C22" t="n">
-        <v>3609.272033329012</v>
+        <v>705.7023989443667</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916677</v>
+        <v>555.5857595320309</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>4637.069157803799</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>4408.638811128706</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W22" t="n">
-        <v>4408.638811128706</v>
+        <v>874.6385818722736</v>
       </c>
       <c r="X22" t="n">
-        <v>4180.649260230689</v>
+        <v>874.6385818722736</v>
       </c>
       <c r="Y22" t="n">
-        <v>3959.856681087159</v>
+        <v>874.6385818722736</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,25 +5992,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6071,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>709.4934589365139</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>761.5137598931742</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="W25" t="n">
-        <v>472.0965898562135</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581962</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6248,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.5481934947357</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>395.5481934947357</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947357</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6418,16 +6420,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>616.3407726382658</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.5481934947357</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>844.1942894808745</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="C31" t="n">
-        <v>675.2581065529677</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529677</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
         <v>359.1696912903951</v>
@@ -6616,7 +6618,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>1025.842754311114</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X31" t="n">
-        <v>1025.842754311114</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y31" t="n">
-        <v>1025.842754311114</v>
+        <v>1071.006709575437</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,16 +6688,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6716,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L33" t="n">
-        <v>709.4934589365139</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.813592216476</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880508</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6889,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6916,58 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465302</v>
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>709.4934589365139</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>636.3016316963311</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>636.3016316963311</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>636.3016316963311</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,10 +7165,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,22 +7177,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7199,25 +7201,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7256,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>709.4934589365139</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
         <v>2016.139981183168</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7409,10 +7411,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7436,19 +7438,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7494,16 +7496,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028587</v>
@@ -7597,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1281.689320534781</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1281.689320534781</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1281.689320534781</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>1281.689320534781</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.896741391251</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7733,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365139</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880508</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7831,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1185.240178049213</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1185.240178049213</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W46" t="n">
-        <v>895.8230080122524</v>
+        <v>926.257995990198</v>
       </c>
       <c r="X46" t="n">
-        <v>667.8334571142351</v>
+        <v>926.257995990198</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.040877970705</v>
+        <v>705.4654168466678</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>239.6115747153265</v>
+        <v>308.083461739839</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357593</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>324.6134391618746</v>
+        <v>450.1033532835733</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470456</v>
+        <v>377.4439124169203</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>85.68821697936164</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247343</v>
+        <v>107.7037345247342</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>96.0374492781458</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298287</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>96.0374492781458</v>
       </c>
       <c r="M15" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298287</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15.83804904622852</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172072</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>176.7176547498449</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>52.49733361305152</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>176.7176547498449</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>38.86002301949804</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L33" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>176.7176547498449</v>
+        <v>297.2466435761028</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11144,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>176.7176547498449</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>127.3779540952191</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>104.9593487161631</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>63.2966426821826</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>65.07662397504183</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>96.27094379216317</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>118.4756235507274</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>25.99160011548639</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>29.89407122271373</v>
+        <v>234.8390860669537</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.8579065075932</v>
+        <v>198.3371037858432</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>69.49222514752647</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>149.6921307144527</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>198.7960322481795</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>213.8192266952353</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25837,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>71.18267187568719</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>85.66237321876753</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>279.6141122257876</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>707523.0293466951</v>
+        <v>707523.0293466952</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278754</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.307527876</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.307527876</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="K2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="L2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="M2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="M2" t="n">
-        <v>703852.3075278758</v>
-      </c>
       <c r="N2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.151770383</v>
+        <v>106137.1517703836</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252117</v>
+        <v>316711.9424252111</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113919</v>
+        <v>72254.6948711389</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313398</v>
+        <v>24677.2460931341</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.1579381715</v>
+        <v>76496.15793817153</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484434</v>
+        <v>286886.6599484432</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>43561.42148316555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43561.42148316548</v>
+      </c>
+      <c r="G4" t="n">
         <v>43561.42148316556</v>
       </c>
-      <c r="F4" t="n">
-        <v>43561.42148316556</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43561.42148316555</v>
-      </c>
       <c r="H4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="I4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="J4" t="n">
         <v>43561.42148316556</v>
@@ -26445,16 +26447,16 @@
         <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316558</v>
       </c>
       <c r="M4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="N4" t="n">
-        <v>43561.42148316551</v>
+        <v>43561.42148316558</v>
       </c>
       <c r="O4" t="n">
-        <v>43561.42148316552</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="P4" t="n">
         <v>43561.42148316556</v>
@@ -26470,22 +26472,22 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485709</v>
+        <v>58810.42201485713</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26502,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244535.903477349</v>
+        <v>244535.9034773492</v>
       </c>
       <c r="C6" t="n">
-        <v>287103.359144171</v>
+        <v>287103.3591441707</v>
       </c>
       <c r="D6" t="n">
-        <v>147159.9759968039</v>
+        <v>147159.9759968045</v>
       </c>
       <c r="E6" t="n">
-        <v>43143.52361909777</v>
+        <v>43143.52361909705</v>
       </c>
       <c r="F6" t="n">
-        <v>568303.5600959937</v>
+        <v>568303.5600959933</v>
       </c>
       <c r="G6" t="n">
-        <v>568303.5600959935</v>
+        <v>568303.5600959933</v>
       </c>
       <c r="H6" t="n">
-        <v>568303.5600959935</v>
+        <v>568303.5600959938</v>
       </c>
       <c r="I6" t="n">
-        <v>568303.5600959937</v>
+        <v>568303.560095994</v>
       </c>
       <c r="J6" t="n">
-        <v>496048.8652248541</v>
+        <v>496048.8652248551</v>
       </c>
       <c r="K6" t="n">
-        <v>543626.3140028599</v>
+        <v>543626.3140028596</v>
       </c>
       <c r="L6" t="n">
-        <v>491807.4021578219</v>
+        <v>491807.4021578223</v>
       </c>
       <c r="M6" t="n">
-        <v>433502.5448621564</v>
+        <v>433502.5448621563</v>
       </c>
       <c r="N6" t="n">
         <v>568303.5600959937</v>
       </c>
       <c r="O6" t="n">
-        <v>568303.5600959938</v>
+        <v>568303.5600959933</v>
       </c>
       <c r="P6" t="n">
-        <v>568303.5600959936</v>
+        <v>568303.5600959939</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593885</v>
+        <v>117.5602045593888</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,13 +26767,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464215</v>
+        <v>372.0396308464219</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026312</v>
+        <v>82.53894384026354</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576982</v>
+        <v>260.1834596576978</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406599</v>
+        <v>95.88311714406649</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081337</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023558</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406599</v>
+        <v>95.88311714406649</v>
       </c>
       <c r="L4" t="n">
         <v>302.2476419081339</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406599</v>
+        <v>95.88311714406649</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081337</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>249.4799455093179</v>
+        <v>369.5807131147095</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>74.4032460806386</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>45.42317364745182</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>116.7238167216225</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27555,10 +27557,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>67.3143516686515</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>9.890739225840321</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>34.83641489528952</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>61.31706337449452</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>160.4146571011508</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385217</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27701,13 +27703,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>109.7932973455552</v>
@@ -27746,22 +27748,22 @@
         <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>173.4528790454526</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>96.57788885000687</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>45.00314453326949</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358484</v>
+        <v>78.3712176435848</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322672</v>
+        <v>68.41045236322667</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255181</v>
+        <v>34.25059020910288</v>
       </c>
       <c r="S7" t="n">
         <v>220.3221240674584</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>214.7697264774463</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>278.7013121144926</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.5788238766276</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>218.2437164232642</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246768</v>
+        <v>0.4726038374246784</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025473</v>
+        <v>4.840054050025489</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231487</v>
+        <v>18.22005944231493</v>
       </c>
       <c r="J5" t="n">
-        <v>40.1116599466227</v>
+        <v>40.11165994662284</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480928</v>
+        <v>60.11698038480948</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439476</v>
+        <v>74.580430074395</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819585</v>
+        <v>82.98509856819612</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127872</v>
+        <v>84.32788422127899</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288708</v>
+        <v>79.62842981288735</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646537</v>
+        <v>67.96102257646558</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.0358976486941</v>
+        <v>51.03589764869427</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262788</v>
+        <v>29.68720080262798</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531483</v>
+        <v>10.76945994531487</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326524</v>
+        <v>2.068823298326531</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397414</v>
+        <v>0.03780830699397426</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560431</v>
+        <v>0.2528653456560439</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941259</v>
+        <v>2.442146890941267</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596221</v>
+        <v>8.706109488596249</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182818</v>
+        <v>23.89022987182826</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078306</v>
+        <v>40.8322080307832</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483515</v>
+        <v>54.90394270483533</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486669</v>
+        <v>64.07031148486691</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827092</v>
+        <v>65.76606198270943</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106741</v>
+        <v>60.1630982710676</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496845</v>
+        <v>48.2861904349686</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128719</v>
+        <v>32.27803956128729</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134626</v>
+        <v>15.69983260134631</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707639</v>
+        <v>4.696862889707655</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359226</v>
+        <v>1.019224792359229</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368705</v>
+        <v>0.01663587800368711</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005365</v>
+        <v>0.2119938115005372</v>
       </c>
       <c r="H7" t="n">
-        <v>1.88481770588659</v>
+        <v>1.884817705886596</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761591</v>
+        <v>6.375232076761613</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308793</v>
+        <v>14.98796247308798</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342597</v>
+        <v>24.62982646342605</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072523</v>
+        <v>31.51769812072533</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094319</v>
+        <v>33.2309935609433</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898667</v>
+        <v>32.44083480898678</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736676</v>
+        <v>29.96436164736685</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275579</v>
+        <v>25.63968789275587</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846766</v>
+        <v>17.75159088846771</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651394</v>
+        <v>9.532012651651426</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513894</v>
+        <v>3.694473969513906</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477468</v>
+        <v>0.9057917400477498</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912019</v>
+        <v>0.01156329880912023</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34714,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>117.41311485904</v>
+        <v>185.8850018835526</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201018</v>
+        <v>28.16237059201032</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109935</v>
+        <v>164.1725419109937</v>
       </c>
       <c r="L5" t="n">
-        <v>256.475229654858</v>
+        <v>256.4752296548582</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337556</v>
+        <v>302.1523988337559</v>
       </c>
       <c r="N5" t="n">
-        <v>292.261745036672</v>
+        <v>292.2617450366722</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539457</v>
+        <v>230.330399653946</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926785</v>
+        <v>158.5267349926787</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.0451984341493</v>
+        <v>41.04519843414947</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557032</v>
+        <v>23.1436385455704</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690028</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284202</v>
+        <v>287.1899082284203</v>
       </c>
       <c r="M6" t="n">
-        <v>246.549716724723</v>
+        <v>372.0396308464219</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464215</v>
+        <v>311.8682623162964</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033525</v>
+        <v>311.4291731033527</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605754</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543115</v>
+        <v>2.360334637543193</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104137</v>
+        <v>59.10772338104147</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278378</v>
+        <v>72.81487052278388</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821526</v>
+        <v>76.57300718821537</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140643</v>
+        <v>54.54948956140653</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764928</v>
+        <v>22.91824715764936</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341702</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415086</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341702</v>
       </c>
       <c r="M15" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>222.9314639777532</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415062</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>425.9753597058693</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>259.5907485445763</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>425.9753597058693</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>349.2844000699645</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L33" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>425.9753597058693</v>
+        <v>546.5043485321271</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>425.9753597058693</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38111,10 +38113,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
